--- a/Pandas/people2.xlsx
+++ b/Pandas/people2.xlsx
@@ -14,57 +14,255 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Job</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="83">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Maritza</t>
+  </si>
+  <si>
+    <t>Deivi</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Marisol</t>
+  </si>
+  <si>
+    <t>Mmartha</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Melanye</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Angelica</t>
+  </si>
+  <si>
+    <t>Manolo</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>Anabelle</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Juana</t>
+  </si>
+  <si>
+    <t>Juanca</t>
+  </si>
+  <si>
+    <t>Manola</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Baster</t>
+  </si>
+  <si>
+    <t>Bernando</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Margarette</t>
+  </si>
+  <si>
+    <t>Marin</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Angie</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Labanda</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Dvid</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Anegl</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
+    <t>Arnaldo</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Nestor</t>
+  </si>
+  <si>
+    <t>Ned</t>
   </si>
   <si>
     <t>John</t>
   </si>
   <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Milhouse</t>
-  </si>
-  <si>
-    <t>Bart</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Marge</t>
-  </si>
-  <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Home</t>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Dayan</t>
+  </si>
+  <si>
+    <t>Front Developer</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Project A</t>
   </si>
 </sst>
 </file>
@@ -422,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,146 +639,3875 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>10001</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>72000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>10002</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>72000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>10003</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>72000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>10004</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>72000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>10005</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>74000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>10006</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>74000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>10007</v>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>74000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>10008</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>74000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>10009</v>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>75000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>77000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>77000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>77000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>77000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>77000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>77000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>77000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>77000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>77000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>79000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="F21">
+        <v>80000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>80000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>80000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>80000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>80000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>80000</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>80000</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>80000</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>80000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>80000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>80000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>39</v>
+      </c>
+      <c r="F32">
+        <v>80000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>39</v>
+      </c>
+      <c r="F33">
+        <v>80000</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>81000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>82000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>82000</v>
+      </c>
+      <c r="G36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="F37">
+        <v>82000</v>
+      </c>
+      <c r="G37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>82000</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>82000</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>82000</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>82000</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>82000</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>82000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>82000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>82000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>82000</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>27</v>
+      </c>
+      <c r="F47">
+        <v>82000</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48">
+        <v>27</v>
+      </c>
+      <c r="F48">
+        <v>82000</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>27</v>
+      </c>
+      <c r="F49">
+        <v>82000</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>82000</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>82000</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>28</v>
+      </c>
+      <c r="F52">
+        <v>82000</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>82000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>82000</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+      <c r="F55">
+        <v>82000</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <v>82000</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>31</v>
+      </c>
+      <c r="F57">
+        <v>82000</v>
+      </c>
+      <c r="G57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58">
+        <v>31</v>
+      </c>
+      <c r="F58">
+        <v>82000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59">
+        <v>31</v>
+      </c>
+      <c r="F59">
+        <v>82000</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>82000</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61">
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>82000</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>32</v>
+      </c>
+      <c r="F62">
+        <v>82000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63">
+        <v>32</v>
+      </c>
+      <c r="F63">
+        <v>82000</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64">
+        <v>32</v>
+      </c>
+      <c r="F64">
+        <v>82000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <v>82000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66">
+        <v>33</v>
+      </c>
+      <c r="F66">
+        <v>82000</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>82000</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>82000</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>82000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70">
+        <v>35</v>
+      </c>
+      <c r="F70">
+        <v>82000</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>35</v>
+      </c>
+      <c r="F71">
+        <v>82000</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72">
+        <v>35</v>
+      </c>
+      <c r="F72">
+        <v>82000</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73">
+        <v>37</v>
+      </c>
+      <c r="F73">
+        <v>82000</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
+      </c>
+      <c r="F74">
+        <v>82000</v>
+      </c>
+      <c r="G74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75">
+        <v>23</v>
+      </c>
+      <c r="F75">
+        <v>83000</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76">
+        <v>23</v>
+      </c>
+      <c r="F76">
+        <v>83000</v>
+      </c>
+      <c r="G76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>25</v>
+      </c>
+      <c r="F77">
+        <v>83000</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78">
+        <v>25</v>
+      </c>
+      <c r="F78">
+        <v>83000</v>
+      </c>
+      <c r="G78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79">
+        <v>28</v>
+      </c>
+      <c r="F79">
+        <v>83000</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>83000</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>31</v>
+      </c>
+      <c r="F81">
+        <v>83000</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>33</v>
+      </c>
+      <c r="F82">
+        <v>83000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83">
+        <v>23</v>
+      </c>
+      <c r="F83">
+        <v>85000</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84">
+        <v>23</v>
+      </c>
+      <c r="F84">
+        <v>85000</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85">
+        <v>23</v>
+      </c>
+      <c r="F85">
+        <v>85000</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86">
+        <v>23</v>
+      </c>
+      <c r="F86">
+        <v>85000</v>
+      </c>
+      <c r="G86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87">
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <v>85000</v>
+      </c>
+      <c r="G87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>85000</v>
+      </c>
+      <c r="G88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89">
+        <v>23</v>
+      </c>
+      <c r="F89">
+        <v>85000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90">
+        <v>23</v>
+      </c>
+      <c r="F90">
+        <v>85000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91">
+        <v>24</v>
+      </c>
+      <c r="F91">
+        <v>85000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" t="s">
+        <v>79</v>
+      </c>
+      <c r="E92">
+        <v>24</v>
+      </c>
+      <c r="F92">
+        <v>85000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>76</v>
+      </c>
+      <c r="D93" t="s">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="F93">
+        <v>85000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" t="s">
+        <v>80</v>
+      </c>
+      <c r="E94">
+        <v>24</v>
+      </c>
+      <c r="F94">
+        <v>85000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95">
+        <v>24</v>
+      </c>
+      <c r="F95">
+        <v>85000</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>85000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97">
+        <v>24</v>
+      </c>
+      <c r="F97">
+        <v>85000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>85000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>85000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>85000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>85000</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102">
+        <v>29</v>
+      </c>
+      <c r="F102">
+        <v>85000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103">
+        <v>30</v>
+      </c>
+      <c r="F103">
+        <v>85000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <v>85000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
+      </c>
+      <c r="F105">
+        <v>85000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
+      </c>
+      <c r="F106">
+        <v>85000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
+      </c>
+      <c r="F107">
+        <v>85000</v>
+      </c>
+      <c r="G107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
+      </c>
+      <c r="F108">
+        <v>85000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>85000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110" t="s">
+        <v>79</v>
+      </c>
+      <c r="E110">
+        <v>32</v>
+      </c>
+      <c r="F110">
+        <v>85000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" t="s">
+        <v>76</v>
+      </c>
+      <c r="D111" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111">
+        <v>34</v>
+      </c>
+      <c r="F111">
+        <v>85000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>42</v>
+      </c>
+      <c r="F112">
+        <v>85000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113">
+        <v>33</v>
+      </c>
+      <c r="F113">
+        <v>86000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114">
+        <v>33</v>
+      </c>
+      <c r="F114">
+        <v>86000</v>
+      </c>
+      <c r="G114" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115">
+        <v>35</v>
+      </c>
+      <c r="F115">
+        <v>86000</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" t="s">
+        <v>79</v>
+      </c>
+      <c r="E116">
+        <v>23</v>
+      </c>
+      <c r="F116">
+        <v>87000</v>
+      </c>
+      <c r="G116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117">
+        <v>32</v>
+      </c>
+      <c r="F117">
+        <v>87000</v>
+      </c>
+      <c r="G117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" t="s">
+        <v>79</v>
+      </c>
+      <c r="E118">
+        <v>34</v>
+      </c>
+      <c r="F118">
+        <v>87000</v>
+      </c>
+      <c r="G118" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>77</v>
+      </c>
+      <c r="D119" t="s">
+        <v>79</v>
+      </c>
+      <c r="E119">
+        <v>34</v>
+      </c>
+      <c r="F119">
+        <v>87000</v>
+      </c>
+      <c r="G119" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120">
+        <v>34</v>
+      </c>
+      <c r="F120">
+        <v>87000</v>
+      </c>
+      <c r="G120" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>58</v>
+      </c>
+      <c r="C121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" t="s">
+        <v>80</v>
+      </c>
+      <c r="E121">
+        <v>34</v>
+      </c>
+      <c r="F121">
+        <v>87000</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" t="s">
+        <v>80</v>
+      </c>
+      <c r="E122">
+        <v>35</v>
+      </c>
+      <c r="F122">
+        <v>87000</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>44</v>
+      </c>
+      <c r="C123" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123">
+        <v>35</v>
+      </c>
+      <c r="F123">
+        <v>87000</v>
+      </c>
+      <c r="G123" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124">
+        <v>35</v>
+      </c>
+      <c r="F124">
+        <v>87000</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" t="s">
+        <v>77</v>
+      </c>
+      <c r="D125" t="s">
+        <v>80</v>
+      </c>
+      <c r="E125">
+        <v>36</v>
+      </c>
+      <c r="F125">
+        <v>87000</v>
+      </c>
+      <c r="G125" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" t="s">
+        <v>80</v>
+      </c>
+      <c r="E126">
+        <v>37</v>
+      </c>
+      <c r="F126">
+        <v>87000</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>79</v>
+      </c>
+      <c r="E127">
+        <v>38</v>
+      </c>
+      <c r="F127">
+        <v>87000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
+        <v>80</v>
+      </c>
+      <c r="E128">
+        <v>39</v>
+      </c>
+      <c r="F128">
+        <v>87000</v>
+      </c>
+      <c r="G128" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129">
+        <v>39</v>
+      </c>
+      <c r="F129">
+        <v>87000</v>
+      </c>
+      <c r="G129" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" t="s">
+        <v>80</v>
+      </c>
+      <c r="E130">
+        <v>31</v>
+      </c>
+      <c r="F130">
+        <v>87600</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="C131" t="s">
+        <v>75</v>
+      </c>
+      <c r="D131" t="s">
+        <v>79</v>
+      </c>
+      <c r="E131">
+        <v>31</v>
+      </c>
+      <c r="F131">
+        <v>87800</v>
+      </c>
+      <c r="G131" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>75</v>
+      </c>
+      <c r="D132" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132">
+        <v>31</v>
+      </c>
+      <c r="F132">
+        <v>87800</v>
+      </c>
+      <c r="G132" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D133" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133">
+        <v>31</v>
+      </c>
+      <c r="F133">
+        <v>87800</v>
+      </c>
+      <c r="G133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>80</v>
+      </c>
+      <c r="E134">
+        <v>31</v>
+      </c>
+      <c r="F134">
+        <v>87800</v>
+      </c>
+      <c r="G134" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>75</v>
+      </c>
+      <c r="D135" t="s">
+        <v>80</v>
+      </c>
+      <c r="E135">
+        <v>33</v>
+      </c>
+      <c r="F135">
+        <v>87800</v>
+      </c>
+      <c r="G135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" t="s">
+        <v>80</v>
+      </c>
+      <c r="E136">
+        <v>31</v>
+      </c>
+      <c r="F136">
+        <v>89000</v>
+      </c>
+      <c r="G136" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>77</v>
+      </c>
+      <c r="D137" t="s">
+        <v>80</v>
+      </c>
+      <c r="E137">
+        <v>37</v>
+      </c>
+      <c r="F137">
+        <v>89000</v>
+      </c>
+      <c r="G137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" t="s">
+        <v>79</v>
+      </c>
+      <c r="E138">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>90000</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" t="s">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
+      </c>
+      <c r="F139">
+        <v>90000</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" t="s">
+        <v>77</v>
+      </c>
+      <c r="D140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E140">
+        <v>35</v>
+      </c>
+      <c r="F140">
+        <v>90000</v>
+      </c>
+      <c r="G140" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" t="s">
+        <v>77</v>
+      </c>
+      <c r="D141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141">
+        <v>35</v>
+      </c>
+      <c r="F141">
+        <v>92000</v>
+      </c>
+      <c r="G141" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" t="s">
+        <v>77</v>
+      </c>
+      <c r="D142" t="s">
+        <v>79</v>
+      </c>
+      <c r="E142">
+        <v>34</v>
+      </c>
+      <c r="F142">
+        <v>93000</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143">
+        <v>38</v>
+      </c>
+      <c r="F143">
+        <v>93000</v>
+      </c>
+      <c r="G143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" t="s">
+        <v>80</v>
+      </c>
+      <c r="E144">
+        <v>31</v>
+      </c>
+      <c r="F144">
+        <v>95000</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" t="s">
+        <v>80</v>
+      </c>
+      <c r="E145">
+        <v>31</v>
+      </c>
+      <c r="F145">
+        <v>95000</v>
+      </c>
+      <c r="G145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>80</v>
+      </c>
+      <c r="E146">
+        <v>31</v>
+      </c>
+      <c r="F146">
+        <v>95000</v>
+      </c>
+      <c r="G146" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" t="s">
+        <v>80</v>
+      </c>
+      <c r="E147">
+        <v>31</v>
+      </c>
+      <c r="F147">
+        <v>95000</v>
+      </c>
+      <c r="G147" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" t="s">
+        <v>80</v>
+      </c>
+      <c r="E148">
+        <v>38</v>
+      </c>
+      <c r="F148">
+        <v>95000</v>
+      </c>
+      <c r="G148" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>77</v>
+      </c>
+      <c r="D149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149">
+        <v>39</v>
+      </c>
+      <c r="F149">
+        <v>95000</v>
+      </c>
+      <c r="G149" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" t="s">
+        <v>80</v>
+      </c>
+      <c r="E150">
+        <v>31</v>
+      </c>
+      <c r="F150">
+        <v>97000</v>
+      </c>
+      <c r="G150" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" t="s">
+        <v>80</v>
+      </c>
+      <c r="E151">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>97000</v>
+      </c>
+      <c r="G151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152" t="s">
+        <v>80</v>
+      </c>
+      <c r="E152">
+        <v>31</v>
+      </c>
+      <c r="F152">
+        <v>97000</v>
+      </c>
+      <c r="G152" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" t="s">
+        <v>75</v>
+      </c>
+      <c r="D153" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153">
+        <v>35</v>
+      </c>
+      <c r="F153">
+        <v>98000</v>
+      </c>
+      <c r="G153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>71</v>
+      </c>
+      <c r="C154" t="s">
+        <v>77</v>
+      </c>
+      <c r="D154" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154">
+        <v>35</v>
+      </c>
+      <c r="F154">
+        <v>100000</v>
+      </c>
+      <c r="G154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155" t="s">
+        <v>79</v>
+      </c>
+      <c r="E155">
+        <v>38</v>
+      </c>
+      <c r="F155">
+        <v>102000</v>
+      </c>
+      <c r="G155" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" t="s">
+        <v>77</v>
+      </c>
+      <c r="D156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156">
+        <v>39</v>
+      </c>
+      <c r="F156">
+        <v>102000</v>
+      </c>
+      <c r="G156" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157" t="s">
+        <v>80</v>
+      </c>
+      <c r="E157">
+        <v>42</v>
+      </c>
+      <c r="F157">
+        <v>102000</v>
+      </c>
+      <c r="G157" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158">
+        <v>38</v>
+      </c>
+      <c r="F158">
+        <v>105000</v>
+      </c>
+      <c r="G158" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" t="s">
+        <v>77</v>
+      </c>
+      <c r="D159" t="s">
+        <v>79</v>
+      </c>
+      <c r="E159">
+        <v>40</v>
+      </c>
+      <c r="F159">
+        <v>110000</v>
+      </c>
+      <c r="G159" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>61</v>
+      </c>
+      <c r="C160" t="s">
+        <v>77</v>
+      </c>
+      <c r="D160" t="s">
+        <v>80</v>
+      </c>
+      <c r="E160">
+        <v>42</v>
+      </c>
+      <c r="F160">
+        <v>110000</v>
+      </c>
+      <c r="G160" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D161" t="s">
+        <v>80</v>
+      </c>
+      <c r="E161">
+        <v>42</v>
+      </c>
+      <c r="F161">
+        <v>120000</v>
+      </c>
+      <c r="G161" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162" t="s">
+        <v>80</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
+      </c>
+      <c r="F162">
+        <v>120000</v>
+      </c>
+      <c r="G162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" t="s">
+        <v>78</v>
+      </c>
+      <c r="D163" t="s">
+        <v>80</v>
+      </c>
+      <c r="E163">
+        <v>42</v>
+      </c>
+      <c r="F163">
+        <v>120000</v>
+      </c>
+      <c r="G163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" t="s">
+        <v>78</v>
+      </c>
+      <c r="D164" t="s">
+        <v>80</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
+      </c>
+      <c r="F164">
+        <v>120000</v>
+      </c>
+      <c r="G164" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>61</v>
+      </c>
+      <c r="C165" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165" t="s">
+        <v>80</v>
+      </c>
+      <c r="E165">
+        <v>42</v>
+      </c>
+      <c r="F165">
+        <v>120000</v>
+      </c>
+      <c r="G165" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166">
+        <v>43</v>
+      </c>
+      <c r="F166">
+        <v>120000</v>
+      </c>
+      <c r="G166" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E167">
+        <v>43</v>
+      </c>
+      <c r="F167">
+        <v>120000</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>78</v>
+      </c>
+      <c r="D168" t="s">
+        <v>79</v>
+      </c>
+      <c r="E168">
+        <v>41</v>
+      </c>
+      <c r="F168">
+        <v>122000</v>
+      </c>
+      <c r="G168" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>74</v>
+      </c>
+      <c r="C169" t="s">
+        <v>78</v>
+      </c>
+      <c r="D169" t="s">
+        <v>79</v>
+      </c>
+      <c r="E169">
+        <v>43</v>
+      </c>
+      <c r="F169">
+        <v>123000</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
